--- a/biology/Botanique/Leucojum/Leucojum.xlsx
+++ b/biology/Botanique/Leucojum/Leucojum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucojum est un genre botanique qui regroupe certaines nivéoles.
 Chez les Galanthus, les trois tépales internes généralement échancrés, sont plus petits que les externes et présentent une ou deux taches vertes (guides de nectar). Chez les Leucojum, en revanche, les six tépales ont la même longueur.
@@ -514,7 +526,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Leucojum aestivum - Nivéole d'été
 Leucojum vernum - Nivéole de printemps</t>
@@ -545,9 +559,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Leucojum est une latinisation du grec λευκοίον (leucoion), issu de leukos, « blanc », et ion, « violette »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Leucojum est une latinisation du grec λευκοίον (leucoion), issu de leukos, « blanc », et ion, « violette ».
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dolores Lledo, Aaron Davis, Manuel Crespo, Mark Chase, Michael Fay, Phylogenetic analysis of Leucojum and Galanthus (Amaryllidaceae) based on plastid matK and nuclear ribosomal spacer (ITS) DNA sequences and morphology, Plant Syst. Evol, 246(3-4): 223-243.
 Réginald Hulhoven, Des Cousines des Perce-neige – Les Nivéoles, Les Jardins d'Eden, 21: 130-133, 2005</t>
